--- a/HLR and Testcase/hlr for standard user.xlsx
+++ b/HLR and Testcase/hlr for standard user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\Assignment\HLR excel sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38BB28D-21C3-4262-9CAD-93A6F37DEADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5E4D8-97D5-4362-B59D-F9BB1B608664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="129">
   <si>
     <t>functionality id</t>
   </si>
@@ -391,6 +391,81 @@
   </si>
   <si>
     <t>as per expected result</t>
+  </si>
+  <si>
+    <t>it is not opening</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on about</t>
+  </si>
+  <si>
+    <t>about button is working properly but while click on about button different website opened</t>
+  </si>
+  <si>
+    <t>logout button is working properly and also had logged out.</t>
+  </si>
+  <si>
+    <t>it is working properly and also had any changes in website it is back to normal</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on reset app state</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on close icon</t>
+  </si>
+  <si>
+    <t>it is working properly and also had close all side menu</t>
+  </si>
+  <si>
+    <t>it is working properly and also had opened</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button 
+4) click on cart icon</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on continue shopping button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on checkout button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on checkout button
+6) click on cancel button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on cart icon
+5) click on checkout button
+6) click on continue button</t>
   </si>
 </sst>
 </file>
@@ -494,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,13 +645,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,7 +1002,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,14 +1437,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="37.140625" customWidth="1"/>
@@ -1369,32 +1453,32 @@
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="29" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" s="28" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1572,7 +1656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -1601,7 +1685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -1630,7 +1714,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -1717,7 +1801,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>12</v>
       </c>
@@ -1746,7 +1830,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -1775,7 +1859,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -1833,32 +1917,32 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    <row r="17" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="29">
         <v>3</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="29" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1881,108 +1965,276 @@
       <c r="F18" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="G18" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24">
+        <v>11</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="21">
+        <v>13</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="21">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>22</v>
+      </c>
+      <c r="B23" s="21">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
+        <v>25</v>
+      </c>
+      <c r="B26" s="21">
+        <v>24</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
+        <v>25</v>
+      </c>
+      <c r="B27" s="21">
+        <v>25</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>

--- a/HLR and Testcase/hlr for standard user.xlsx
+++ b/HLR and Testcase/hlr for standard user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATRI ENTERPRISE\Documents\GitHub\Nirav_Tops\HLR and Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA5E4D8-97D5-4362-B59D-F9BB1B608664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4496385C-4092-44DA-9DF7-C71822E2E44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="159">
   <si>
     <t>functionality id</t>
   </si>
@@ -105,9 +105,6 @@
     <t>while clicking on the cancel button, it is working properly.</t>
   </si>
   <si>
-    <t>same as 15 id</t>
-  </si>
-  <si>
     <t>check filter dropdown menu</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>same as 41 id</t>
   </si>
   <si>
-    <t>same as 41 and 35 id</t>
-  </si>
-  <si>
     <t xml:space="preserve">same as 25 id </t>
   </si>
   <si>
@@ -172,9 +166,6 @@
   </si>
   <si>
     <t>while clicking on the reset app state, it is working properly.</t>
-  </si>
-  <si>
-    <t>same as 31 id</t>
   </si>
   <si>
     <t>While clicking on the continue button, it is working properly, and also had opened.</t>
@@ -466,6 +457,152 @@
 4) click on cart icon
 5) click on checkout button
 6) click on continue button</t>
+  </si>
+  <si>
+    <t>same as 22 id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on dropdown menu
+</t>
+  </si>
+  <si>
+    <t>while clicking on dropdown menu it is working properly but while I click on dropdown arrow it is not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on dropdown menu
+5) check dropdown options
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while clicking on dropdown options it is working properly </t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link</t>
+  </si>
+  <si>
+    <t>while clicking on product name link it is working properly buy some time it has logged out.</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on add to cart button</t>
+  </si>
+  <si>
+    <t>while clicking on add to cart button it is working properly and also had added to cart</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on add to cart button
+6) click on remove button</t>
+  </si>
+  <si>
+    <t>while clicking on remove button it is working properly and also had remove from cart</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on back to product</t>
+  </si>
+  <si>
+    <t>while clicking on back to product it is working properly buy some time it has logged out.</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on image</t>
+  </si>
+  <si>
+    <t>while clicking on image it is working properly and also has opened.</t>
+  </si>
+  <si>
+    <t>same as 41 and 45 id</t>
+  </si>
+  <si>
+    <t>same as 23 id</t>
+  </si>
+  <si>
+    <t>same as 31 test case id</t>
+  </si>
+  <si>
+    <t>same as 22 test case id</t>
+  </si>
+  <si>
+    <t>same as 24 test case id</t>
+  </si>
+  <si>
+    <t>same as 25 test case id</t>
+  </si>
+  <si>
+    <t>as pr expeted result</t>
+  </si>
+  <si>
+    <t>same as 32 test case id</t>
+  </si>
+  <si>
+    <t>same as 32 and 36 test case id</t>
+  </si>
+  <si>
+    <t>same as 26 test case id</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on cart icon
+5) click on checkout button
+6) click on continue button
+7) click on finish button</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on product name link
+5) click on cart icon
+5) click on checkout button
+6) click on continue button
+7) click on finish button
+8) click on back to home button</t>
+  </si>
+  <si>
+    <t>while clicking on twitter icon it is working properly and also had opened.</t>
+  </si>
+  <si>
+    <t>while clicking on facebook icon it is working properly and also had opened.</t>
+  </si>
+  <si>
+    <t>while clicking on linkedin icon it is working properly and also had opened.</t>
+  </si>
+  <si>
+    <t>1) www.saucedemo.com
+2) press enter key
+3) click on login button
+4) click on side menu
+5) click on logout button</t>
+  </si>
+  <si>
+    <t>same as 19 test case id</t>
   </si>
 </sst>
 </file>
@@ -569,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -659,6 +796,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,10 +1174,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -1050,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
@@ -1083,10 +1229,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -1097,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1105,10 +1251,10 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1152,7 +1298,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1171,7 +1317,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>20</v>
@@ -1182,10 +1328,10 @@
         <v>27</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1193,10 +1339,10 @@
         <v>28</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1237,7 +1383,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>16</v>
@@ -1248,10 +1394,10 @@
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1259,7 +1405,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>15</v>
@@ -1270,7 +1416,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>10</v>
@@ -1281,7 +1427,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>22</v>
@@ -1292,7 +1438,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
@@ -1303,7 +1449,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>21</v>
@@ -1314,10 +1460,10 @@
         <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1325,7 +1471,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>26</v>
@@ -1336,10 +1482,10 @@
         <v>51</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1347,10 +1493,10 @@
         <v>52</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1358,10 +1504,10 @@
         <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1369,10 +1515,10 @@
         <v>54</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1380,10 +1526,10 @@
         <v>55</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1391,10 +1537,10 @@
         <v>56</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1437,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,38 +1594,38 @@
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="28" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -1490,25 +1636,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="I2" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="7" customFormat="1" ht="206.25" x14ac:dyDescent="0.25">
@@ -1519,25 +1665,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>78</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -1548,25 +1694,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1577,25 +1723,25 @@
         <v>2</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1606,25 +1752,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>92</v>
-      </c>
       <c r="I6" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1635,25 +1781,25 @@
         <v>2</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1664,25 +1810,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1693,25 +1839,25 @@
         <v>2</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1722,25 +1868,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1751,25 +1897,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1780,25 +1926,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1809,25 +1955,25 @@
         <v>2</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="G13" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1838,25 +1984,25 @@
         <v>2</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1867,25 +2013,25 @@
         <v>2</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1896,25 +2042,25 @@
         <v>2</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="18" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1925,25 +2071,25 @@
         <v>3</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="7" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
@@ -1957,22 +2103,22 @@
         <v>4</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="H18" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="7" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
@@ -1986,22 +2132,22 @@
         <v>5</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -2012,25 +2158,25 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="F20" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -2044,22 +2190,22 @@
         <v>6</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F21" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -2070,25 +2216,25 @@
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F22" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -2102,22 +2248,22 @@
         <v>17</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F23" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
@@ -2131,22 +2277,22 @@
         <v>18</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
@@ -2160,22 +2306,22 @@
         <v>19</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F25" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
@@ -2189,27 +2335,27 @@
         <v>24</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="21">
         <v>25</v>
@@ -2218,254 +2364,632 @@
         <v>25</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E27" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>27</v>
+      </c>
+      <c r="B28" s="21">
+        <v>26</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24">
+        <v>27</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F29" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29">
+        <v>28</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="21" t="s">
+    </row>
+    <row r="31" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24">
+        <v>29</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29">
+        <v>40</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29">
+        <v>41</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>33</v>
+      </c>
+      <c r="B34" s="24">
+        <v>42</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29">
+        <v>43</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>35</v>
+      </c>
+      <c r="B36" s="21">
+        <v>44</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>36</v>
+      </c>
+      <c r="B37" s="21">
+        <v>45</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>37</v>
+      </c>
+      <c r="B38" s="21">
+        <v>46</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>38</v>
+      </c>
+      <c r="B39" s="21">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>39</v>
+      </c>
+      <c r="B40" s="21">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-    </row>
-    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-    </row>
-    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-    </row>
-    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
+      <c r="F40" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>40</v>
+      </c>
+      <c r="B41" s="21">
+        <v>49</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>41</v>
+      </c>
+      <c r="B42" s="21">
+        <v>50</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21">
+        <v>51</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21">
+        <v>54</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <v>46</v>
+      </c>
+      <c r="B47" s="21">
+        <v>55</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
+        <v>47</v>
+      </c>
+      <c r="B48" s="21">
+        <v>56</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
